--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2317.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2317.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>4.596779258716088</v>
+        <v>1.028960227966309</v>
       </c>
       <c r="B1">
-        <v>2.276219464578705</v>
+        <v>1.815238833427429</v>
       </c>
       <c r="C1">
-        <v>1.443334103814179</v>
+        <v>1.839377164840698</v>
       </c>
       <c r="D1">
-        <v>1.236989094899891</v>
+        <v>1.936708807945251</v>
       </c>
       <c r="E1">
-        <v>1.18947441244752</v>
+        <v>1.357491135597229</v>
       </c>
     </row>
   </sheetData>
